--- a/spec/support/fixtures/shared_authorities.xlsx
+++ b/spec/support/fixtures/shared_authorities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/code/cs/migration_tools/spec/support/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297FA17-0003-0846-9575-F3D0C352CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1987D478-667F-584D-8533-464CC44D8E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{46DFDDE5-AE18-2543-9246-E7511FBA14F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="87">
   <si>
     <t>loadVersion</t>
   </si>
@@ -251,10 +251,52 @@
     <t>update</t>
   </si>
   <si>
-    <t>prevterm</t>
-  </si>
-  <si>
     <t>origterm</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Bcd</t>
+  </si>
+  <si>
+    <t>Bcde</t>
+  </si>
+  <si>
+    <t>Bcdef</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Zy</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>Hi</t>
   </si>
 </sst>
 </file>
@@ -334,18 +376,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACD17467-15B3-5A4C-8797-50FB43894D7B}" name="termData" displayName="termData" ref="A1:T33" totalsRowShown="0">
-  <autoFilter ref="A1:T33" xr:uid="{ACD17467-15B3-5A4C-8797-50FB43894D7B}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ACD17467-15B3-5A4C-8797-50FB43894D7B}" name="termData" displayName="termData" ref="A1:S52" totalsRowShown="0">
+  <autoFilter ref="A1:S52" xr:uid="{ACD17467-15B3-5A4C-8797-50FB43894D7B}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{4F796534-584D-9A4E-ABE9-7487FC66F21C}" name="loadVersion"/>
     <tableColumn id="2" xr3:uid="{B60F1997-D148-C248-A62B-B90668B5A0FD}" name="loadAction"/>
     <tableColumn id="3" xr3:uid="{CF1B4403-1F13-1E49-80CE-E5E31241E7C8}" name="id" dataDxfId="2">
-      <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",TRUE,D2,E2,H2)</calculatedColumnFormula>
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",TRUE,D2,E2,G2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{174D91A9-A37B-7D4D-AEEB-5EF92173DDB8}" name="authorityType"/>
     <tableColumn id="5" xr3:uid="{1CDD53D2-3E61-7E4F-9F05-1C1F52CD67E1}" name="authoritySubtype"/>
     <tableColumn id="6" xr3:uid="{67F5A8F7-08E8-4148-888C-B538956DFD76}" name="termDisplayName"/>
-    <tableColumn id="20" xr3:uid="{F407C0AD-6E50-3041-A52A-A694344028A0}" name="prevterm"/>
     <tableColumn id="19" xr3:uid="{37F69621-DA14-0A49-81FD-BCF2626AE683}" name="origterm"/>
     <tableColumn id="7" xr3:uid="{7C228B35-45E7-D544-BB54-E4AB2617AD93}" name="termStatus"/>
     <tableColumn id="8" xr3:uid="{BF04179A-1B5B-4641-A1EA-32603032B720}" name="termSourceCitationLocal"/>
@@ -683,29 +724,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E99C596-A9C9-184A-8CCC-4003927759D8}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="8" width="66.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="6" max="7" width="66.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -728,46 +770,43 @@
         <v>71</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -775,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,D2,E2,H2)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D2,E2,G2)</f>
         <v>citation local National Archives: Federal Register</v>
       </c>
       <c r="D2" t="s">
@@ -787,15 +826,15 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="str">
-        <f t="shared" ref="T2" si="0">_xlfn.TEXTJOIN(" ",TRUE,C2,A2)</f>
+      <c r="S2" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C2,A2)</f>
         <v>citation local National Archives: Federal Register 0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -803,7 +842,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C33" si="1">_xlfn.TEXTJOIN(" ",TRUE,D3,E3,H3)</f>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D3,E3,G3)</f>
         <v>concept material rubber</v>
       </c>
       <c r="D3" t="s">
@@ -815,27 +854,27 @@
       <c r="F3" t="s">
         <v>69</v>
       </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
       <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
         <v>22</v>
       </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
         <v>25</v>
       </c>
-      <c r="T3" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C3,A3)</f>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S9" si="0">_xlfn.TEXTJOIN(" ",TRUE,C3,A3)</f>
         <v>concept material rubber 0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -843,7 +882,7 @@
         <v>70</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D4,E4,G4)</f>
         <v>concept material rubber</v>
       </c>
       <c r="D4" t="s">
@@ -858,15 +897,12 @@
       <c r="G4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T4" s="1" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C4,A4)</f>
+      <c r="S4" t="str">
+        <f t="shared" si="0"/>
         <v>concept material rubber 1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -874,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D5,E5,G5)</f>
         <v>concept material organic materials (flora and fauna)</v>
       </c>
       <c r="D5" t="s">
@@ -886,18 +922,18 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C5,A5)</f>
+      <c r="S5" t="str">
+        <f t="shared" si="0"/>
         <v>concept material organic materials (flora and fauna) 0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -905,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D6,E6,G6)</f>
         <v>concept material synthetic fiber</v>
       </c>
       <c r="D6" t="s">
@@ -917,27 +953,27 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
         <v>22</v>
       </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" t="s">
         <v>25</v>
       </c>
-      <c r="T6" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C6,A6)</f>
+      <c r="S6" t="str">
+        <f t="shared" si="0"/>
         <v>concept material synthetic fiber 0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -945,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D7,E7,G7)</f>
         <v>concept material synthetic material</v>
       </c>
       <c r="D7" t="s">
@@ -957,27 +993,27 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
         <v>22</v>
       </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
       <c r="Q7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" t="s">
         <v>25</v>
       </c>
-      <c r="T7" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C7,A7)</f>
+      <c r="S7" t="str">
+        <f t="shared" si="0"/>
         <v>concept material synthetic material 0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -985,7 +1021,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D8,E8,G8)</f>
         <v>concept material synthetic materials</v>
       </c>
       <c r="D8" t="s">
@@ -997,18 +1033,18 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="T8" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C8,A8)</f>
+      <c r="S8" t="str">
+        <f t="shared" si="0"/>
         <v>concept material synthetic materials 0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1016,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D9,E9,G9)</f>
         <v>concept material synthetic rubber</v>
       </c>
       <c r="D9" t="s">
@@ -1028,27 +1064,27 @@
       <c r="F9" t="s">
         <v>30</v>
       </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
         <v>22</v>
       </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
       <c r="Q9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" t="s">
         <v>25</v>
       </c>
-      <c r="T9" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C9,A9)</f>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
         <v>concept material synthetic rubber 0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1056,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D10,E10,G10)</f>
         <v>concept nomenclature Abrader</v>
       </c>
       <c r="D10" t="s">
@@ -1068,18 +1104,18 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="T10" t="str">
-        <f t="shared" ref="T10:T11" si="2">_xlfn.TEXTJOIN(" ",TRUE,C10,A10)</f>
+      <c r="S10" t="str">
+        <f t="shared" ref="S10:S11" si="1">_xlfn.TEXTJOIN(" ",TRUE,C10,A10)</f>
         <v>concept nomenclature Abrader 0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1087,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D11,E11,G11)</f>
         <v>concept nomenclature Adobe</v>
       </c>
       <c r="D11" t="s">
@@ -1099,18 +1135,18 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="T11" t="str">
-        <f t="shared" si="2"/>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
         <v>concept nomenclature Adobe 0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1118,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D12,E12,G12)</f>
         <v>concept nomenclature Unidentified Object</v>
       </c>
       <c r="D12" t="s">
@@ -1130,18 +1166,18 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" ref="T12:T16" si="3">_xlfn.TEXTJOIN(" ",TRUE,C12,A12)</f>
+      <c r="S12" t="str">
+        <f t="shared" ref="S12:S16" si="2">_xlfn.TEXTJOIN(" ",TRUE,C12,A12)</f>
         <v>concept nomenclature Unidentified Object 0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1149,7 +1185,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D13,E13,G13)</f>
         <v>concept nomenclature Weaving Tool</v>
       </c>
       <c r="D13" t="s">
@@ -1161,18 +1197,18 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
       <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="T13" t="str">
-        <f t="shared" si="3"/>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
         <v>concept nomenclature Weaving Tool 0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1180,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D14,E14,G14)</f>
         <v>organization local Absentee-Shawnee Tribe of Indians of Oklahoma</v>
       </c>
       <c r="D14" t="s">
@@ -1192,24 +1228,24 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
         <v>38</v>
       </c>
-      <c r="T14" t="str">
-        <f t="shared" si="3"/>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
         <v>organization local Absentee-Shawnee Tribe of Indians of Oklahoma 0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1217,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D15,E15,G15)</f>
         <v>organization local Agdaagux Tribe of King Cove</v>
       </c>
       <c r="D15" t="s">
@@ -1229,24 +1265,24 @@
       <c r="F15" t="s">
         <v>39</v>
       </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
         <v>38</v>
       </c>
-      <c r="T15" t="str">
-        <f t="shared" si="3"/>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
         <v>organization local Agdaagux Tribe of King Cove 0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1254,7 +1290,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D16,E16,G16)</f>
         <v>organization local Agua Caliente Band of Cahuilla Indians of the Agua Caliente Indian Reservation, California</v>
       </c>
       <c r="D16" t="s">
@@ -1266,24 +1302,24 @@
       <c r="F16" t="s">
         <v>40</v>
       </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
         <v>38</v>
       </c>
-      <c r="T16" t="str">
-        <f t="shared" si="3"/>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
         <v>organization local Agua Caliente Band of Cahuilla Indians of the Agua Caliente Indian Reservation, California 0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D17,E17,G17)</f>
         <v>place local Abbeville County, South Carolina</v>
       </c>
       <c r="D17" t="s">
@@ -1303,24 +1339,24 @@
       <c r="F17" t="s">
         <v>42</v>
       </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
       <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
         <v>22</v>
       </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C17,A17)</f>
+      <c r="S17" t="str">
+        <f t="shared" ref="S17:S33" si="3">_xlfn.TEXTJOIN(" ",TRUE,C17,A17)</f>
         <v>place local Abbeville County, South Carolina 0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1328,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D18,E18,G18)</f>
         <v>place local Acadia Parish, Louisiana</v>
       </c>
       <c r="D18" t="s">
@@ -1340,24 +1376,24 @@
       <c r="F18" t="s">
         <v>45</v>
       </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
       <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
         <v>22</v>
       </c>
+      <c r="L18" t="s">
+        <v>43</v>
+      </c>
       <c r="M18" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" t="s">
         <v>44</v>
       </c>
-      <c r="T18" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C18,A18)</f>
+      <c r="S18" t="str">
+        <f t="shared" si="3"/>
         <v>place local Acadia Parish, Louisiana 0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1365,7 +1401,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D19,E19,G19)</f>
         <v>place local Accomack County, Virginia</v>
       </c>
       <c r="D19" t="s">
@@ -1377,24 +1413,24 @@
       <c r="F19" t="s">
         <v>46</v>
       </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
       <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
         <v>22</v>
       </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
       <c r="M19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" t="s">
         <v>44</v>
       </c>
-      <c r="T19" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C19,A19)</f>
+      <c r="S19" t="str">
+        <f t="shared" si="3"/>
         <v>place local Accomack County, Virginia 0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1402,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D20,E20,G20)</f>
         <v>place local Unknown County, Ohio</v>
       </c>
       <c r="D20" t="s">
@@ -1414,24 +1450,24 @@
       <c r="F20" t="s">
         <v>48</v>
       </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
         <v>22</v>
       </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
       <c r="M20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
         <v>47</v>
       </c>
-      <c r="T20" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C20,A20)</f>
+      <c r="S20" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Ohio 0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1439,7 +1475,7 @@
         <v>16</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D21,E21,G21)</f>
         <v>place local Unknown County, Oklahoma</v>
       </c>
       <c r="D21" t="s">
@@ -1451,24 +1487,24 @@
       <c r="F21" t="s">
         <v>49</v>
       </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
       <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
         <v>22</v>
       </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
       <c r="M21" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" t="s">
         <v>47</v>
       </c>
-      <c r="T21" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C21,A21)</f>
+      <c r="S21" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Oklahoma 0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D22,E22,G22)</f>
         <v>place local Unknown County, Oregon</v>
       </c>
       <c r="D22" t="s">
@@ -1488,24 +1524,24 @@
       <c r="F22" t="s">
         <v>50</v>
       </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
       <c r="H22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
         <v>22</v>
       </c>
+      <c r="L22" t="s">
+        <v>43</v>
+      </c>
       <c r="M22" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" t="s">
         <v>47</v>
       </c>
-      <c r="T22" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C22,A22)</f>
+      <c r="S22" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Oregon 0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1513,7 +1549,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D23,E23,G23)</f>
         <v>place local Unknown County, Pennsylvania</v>
       </c>
       <c r="D23" t="s">
@@ -1525,24 +1561,24 @@
       <c r="F23" t="s">
         <v>51</v>
       </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
       <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
         <v>22</v>
       </c>
+      <c r="L23" t="s">
+        <v>43</v>
+      </c>
       <c r="M23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" t="s">
         <v>47</v>
       </c>
-      <c r="T23" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C23,A23)</f>
+      <c r="S23" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Pennsylvania 0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1550,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D24,E24,G24)</f>
         <v>place local Unknown County, Rhode Island</v>
       </c>
       <c r="D24" t="s">
@@ -1562,24 +1598,24 @@
       <c r="F24" t="s">
         <v>52</v>
       </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
       <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" t="s">
         <v>22</v>
       </c>
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
       <c r="M24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" t="s">
         <v>47</v>
       </c>
-      <c r="T24" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C24,A24)</f>
+      <c r="S24" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Rhode Island 0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1587,7 +1623,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D25,E25,G25)</f>
         <v>place local Unknown County, South Carolina</v>
       </c>
       <c r="D25" t="s">
@@ -1599,24 +1635,24 @@
       <c r="F25" t="s">
         <v>53</v>
       </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
       <c r="H25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I25" t="s">
         <v>22</v>
       </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
       <c r="M25" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" t="s">
         <v>47</v>
       </c>
-      <c r="T25" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C25,A25)</f>
+      <c r="S25" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, South Carolina 0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1624,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D26,E26,G26)</f>
         <v>place local Unknown County, South Dakota</v>
       </c>
       <c r="D26" t="s">
@@ -1636,24 +1672,24 @@
       <c r="F26" t="s">
         <v>54</v>
       </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
       <c r="H26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" t="s">
         <v>22</v>
       </c>
+      <c r="L26" t="s">
+        <v>43</v>
+      </c>
       <c r="M26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" t="s">
         <v>47</v>
       </c>
-      <c r="T26" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C26,A26)</f>
+      <c r="S26" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, South Dakota 0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1661,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D27,E27,G27)</f>
         <v>place local Unknown County, Tennessee</v>
       </c>
       <c r="D27" t="s">
@@ -1673,24 +1709,24 @@
       <c r="F27" t="s">
         <v>55</v>
       </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
       <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
         <v>22</v>
       </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
       <c r="M27" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" t="s">
         <v>47</v>
       </c>
-      <c r="T27" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C27,A27)</f>
+      <c r="S27" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Tennessee 0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1698,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D28,E28,G28)</f>
         <v>place local Unknown County, Texas</v>
       </c>
       <c r="D28" t="s">
@@ -1710,24 +1746,24 @@
       <c r="F28" t="s">
         <v>56</v>
       </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
       <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" t="s">
         <v>22</v>
       </c>
+      <c r="L28" t="s">
+        <v>43</v>
+      </c>
       <c r="M28" t="s">
-        <v>43</v>
-      </c>
-      <c r="N28" t="s">
         <v>47</v>
       </c>
-      <c r="T28" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C28,A28)</f>
+      <c r="S28" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Texas 0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1735,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D29,E29,G29)</f>
         <v>place local Unknown County, Unknown State</v>
       </c>
       <c r="D29" t="s">
@@ -1747,18 +1783,18 @@
       <c r="F29" t="s">
         <v>57</v>
       </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>57</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M29" t="s">
         <v>47</v>
       </c>
-      <c r="T29" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C29,A29)</f>
+      <c r="S29" t="str">
+        <f t="shared" si="3"/>
         <v>place local Unknown County, Unknown State 1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1766,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D30,E30,G30)</f>
         <v>concept ethfilecode Museum collection</v>
       </c>
       <c r="D30" t="s">
@@ -1778,21 +1814,21 @@
       <c r="F30" t="s">
         <v>68</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>68</v>
       </c>
+      <c r="N30" t="s">
+        <v>65</v>
+      </c>
       <c r="O30" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" t="s">
         <v>66</v>
       </c>
-      <c r="T30" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C30,A30)</f>
+      <c r="S30" t="str">
+        <f t="shared" si="3"/>
         <v>concept ethfilecode Museum collection 2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1800,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D31,E31,G31)</f>
         <v>concept ethfilecode Education collection</v>
       </c>
       <c r="D31" t="s">
@@ -1812,21 +1848,21 @@
       <c r="F31" t="s">
         <v>60</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>60</v>
       </c>
+      <c r="N31" t="s">
+        <v>65</v>
+      </c>
       <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="s">
         <v>62</v>
       </c>
-      <c r="T31" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C31,A31)</f>
+      <c r="S31" t="str">
+        <f t="shared" si="3"/>
         <v>concept ethfilecode Education collection 1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1834,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D32,E32,G32)</f>
         <v>concept ethfilecode Archaeologically recovered teaching collection</v>
       </c>
       <c r="D32" t="s">
@@ -1846,21 +1882,21 @@
       <c r="F32" t="s">
         <v>59</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
         <v>59</v>
       </c>
+      <c r="N32" t="s">
+        <v>65</v>
+      </c>
       <c r="O32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" t="s">
         <v>61</v>
       </c>
-      <c r="T32" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C32,A32)</f>
+      <c r="S32" t="str">
+        <f t="shared" si="3"/>
         <v>concept ethfilecode Archaeologically recovered teaching collection 1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1868,7 +1904,7 @@
         <v>67</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D33,E33,G33)</f>
         <v>concept ethfilecode Archaeologically recovered teaching collection</v>
       </c>
       <c r="D33" t="s">
@@ -1880,17 +1916,549 @@
       <c r="F33" t="s">
         <v>59</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>59</v>
       </c>
-      <c r="T33" t="str">
-        <f>_xlfn.TEXTJOIN(" ",TRUE,C33,A33)</f>
+      <c r="S33" t="str">
+        <f t="shared" si="3"/>
         <v>concept ethfilecode Archaeologically recovered teaching collection 2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D34,E34,G34)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C34,A34)</f>
+        <v>person local A 1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D35,E35,G35)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C35,A35)</f>
+        <v>person local A 2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D36,E36,G36)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C36,A36)</f>
+        <v>person local A 3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D37,E37,G37)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" t="s">
+        <v>73</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C37,A37)</f>
+        <v>person local A 4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D38,E38,G38)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C38,A38)</f>
+        <v>person local A 5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D39,E39,G39)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s">
+        <v>73</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C39,A39)</f>
+        <v>person local A 6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D40,E40,G40)</f>
+        <v>person local A</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C40,A40)</f>
+        <v>person local A 7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D41,E41,G41)</f>
+        <v>person local B</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="S41" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C41,A41)</f>
+        <v>person local B 10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D42,E42,G42)</f>
+        <v>person local B</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="S42" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C42,A42)</f>
+        <v>person local B 2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D43,E43,G43)</f>
+        <v>person local B</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C43,A43)</f>
+        <v>person local B 4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D44,E44,G44)</f>
+        <v>person local B</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="S44" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C44,A44)</f>
+        <v>person local B 6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D45,E45,G45)</f>
+        <v>person local B</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="S45" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C45,A45)</f>
+        <v>person local B 8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D46,E46,G46)</f>
+        <v>person local H</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S46" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C46,A46)</f>
+        <v>person local H 3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D47,E47,G47)</f>
+        <v>person local H</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C47,A47)</f>
+        <v>person local H 5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D48,E48,G48)</f>
+        <v>person local H</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>84</v>
+      </c>
+      <c r="S48" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C48,A48)</f>
+        <v>person local H 7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D49,E49,G49)</f>
+        <v>person local N</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="S49" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C49,A49)</f>
+        <v>person local N 0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D50,E50,G50)</f>
+        <v>person local N</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" t="s">
+        <v>82</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C50,A50)</f>
+        <v>person local N 4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D51,E51,G51)</f>
+        <v>person local Z</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s">
+        <v>81</v>
+      </c>
+      <c r="S51" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C51,A51)</f>
+        <v>person local Z 0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,D52,E52,G52)</f>
+        <v>person local Z</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52" t="s">
+        <v>81</v>
+      </c>
+      <c r="S52" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,C52,A52)</f>
+        <v>person local Z 2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="T1:T1048576">
+  <conditionalFormatting sqref="S1:S1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,15 +2488,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A00C4DE627EB54449BA92EDD4203D684" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c66ae8ad5e806d130737f1340b5989e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ecaf8b9-395e-4614-9554-a754ef4fa6ce" xmlns:ns3="3e0fc0fe-d5d6-438e-8bc4-7eae18f70edf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37a5a0aced1fd5955e1b293c1cac970c" ns2:_="" ns3:_="">
     <xsd:import namespace="9ecaf8b9-395e-4614-9554-a754ef4fa6ce"/>
@@ -2173,6 +2732,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B562868-A36F-4472-9708-B8C1A15ABD9C}">
   <ds:schemaRefs>
@@ -2191,14 +2759,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16256468-843A-499E-A17A-7488693C792A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD47EA95-CE89-42A6-A70E-F12711DFC091}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2217,6 +2777,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16256468-843A-499E-A17A-7488693C792A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5728cf0c-0652-430c-aecd-f311d1d5020f}" enabled="0" method="" siteId="{5728cf0c-0652-430c-aecd-f311d1d5020f}" removed="1"/>
